--- a/automation/src/main/java/com/automation/dataFactory/Registration.xlsx
+++ b/automation/src/main/java/com/automation/dataFactory/Registration.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationDetailSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Akash</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Ankit K</t>
+  </si>
+  <si>
+    <t>Sounak G</t>
+  </si>
+  <si>
+    <t>Akash K</t>
   </si>
 </sst>
 </file>
@@ -384,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -446,6 +461,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -453,12 +473,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/automation/src/main/java/com/automation/dataFactory/Registration.xlsx
+++ b/automation/src/main/java/com/automation/dataFactory/Registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationDetailSheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,9 +36,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Sounak</t>
-  </si>
-  <si>
     <t>Ghosh</t>
   </si>
   <si>
@@ -48,15 +45,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>Ankit</t>
-  </si>
-  <si>
-    <t>Akash</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
     <t>FullName</t>
   </si>
   <si>
@@ -67,6 +55,12 @@
   </si>
   <si>
     <t>Akash K</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Five</t>
   </si>
 </sst>
 </file>
@@ -399,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -433,16 +427,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>712676</v>
@@ -453,17 +447,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -475,30 +459,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/automation/src/main/java/com/automation/dataFactory/Registration.xlsx
+++ b/automation/src/main/java/com/automation/dataFactory/Registration.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationDetailSheet" sheetId="1" r:id="rId1"/>
     <sheet name="TestSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SelectorsHubForm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>Five</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>abc123@</t>
+  </si>
+  <si>
+    <t>IBM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +90,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,13 +121,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -492,12 +539,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>